--- a/medicine/Enfance/Jean_Dubacq/Jean_Dubacq.xlsx
+++ b/medicine/Enfance/Jean_Dubacq/Jean_Dubacq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Dubacq, né le 24 février 1923 à Choisy-le-Roi, et mort le 5 septembre 2009 à Orly, est un poète, essayiste et romancier français. Il a utilisé au cours de sa carrière les pseudonymes de Jean Cimèze, Jean Sébastien, Jean Ferry et R. Athépey.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Dubacq est né dans une famille modeste. Son entrée dans le monde du  travail se traduit par diverses situations sans grand rapport les unes avec les autres qui vont de chaudronnier, d’agent des PTT et de la SNCF jusqu’à la Banque de France.
 Si la poésie semble essentielle dans son œuvre, Jean Dubacq est aussi l'auteur de plusieurs romans, d’essais et d’ouvrages pour la jeunesse. On lui connaît aussi une activité de peintre : il hésite un temps entre littérature et peinture, pour n'en négliger finalement aucune. Sa production picturale porte principalement sur l'aquarelle. Essentiellement paysagiste, il traite aussi la nature morte et s'oriente dans sa dernière période vers la peinture de genre (groupe de sportifs, de musiciens..)
@@ -548,37 +562,295 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Signée Jean Dubacq
-Poésie
-L’Homme physique (préface de Pierre Meyronne), éditions Millas-Martin, 1966
+          <t>Signée Jean Dubacq</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L’Homme physique (préface de Pierre Meyronne), éditions Millas-Martin, 1966
 Le Mot oiseau le mot visage, éditions Millas-Martin, 1978
 La Condition des soies  (Prix Louise Labé), éditions Groupe de recherches polypoétiques, 1986
 Comment pouvez-vous lire à présent ? Il fait nuit (Prix Louis-Guillaume), éditions Folle Avoine, 1992
 Tous les absents possibles, éditions Folle Avoine, 2001
 Les Joies testamentaires, éditions de l’Atlantique, 2009
-Divers poèmes dans les revues : Iô (dont il a été le directeur), éd. Phréatique, Autre Sud, Noah, etc.
-Essais
-L’École de Rochefort (sous le pseudonyme de Jean Cimèze), 1952
+Divers poèmes dans les revues : Iô (dont il a été le directeur), éd. Phréatique, Autre Sud, Noah, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Signée Jean Dubacq</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L’École de Rochefort (sous le pseudonyme de Jean Cimèze), 1952
 L’École de Rochefort, Poésie 1, librairie Saint-Germain-des-Prés, 1970
 Guillevic, éditions Tête de feuilles, 1972
 Une saison en Béarn : Autour de Paul-Jean Toulet, éditions Aubéron, 1996
-Ostende, édition Champs Vallon, 1985
-Romans
-Les Dentelles de la guerre, éditions Grasset, 1961
+Ostende, édition Champs Vallon, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Signée Jean Dubacq</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Dentelles de la guerre, éditions Grasset, 1961
 Le temps est un voyage, éditions Grasset, 1963
 L'Eau douce, éditions Têtes de feuilles, 1974
-Une banlieue douce, Jacques André éditeur, 2006 - réédition de L'Eau douce (1974)
-Romans pour la jeunesse
-Le Petit Robot et la Tour Eiffel, éditions du Sorbier, 1984
-J’étais enfant sous la Révolution, éditions du Sorbier, 1988
-Poésie signée Jean Cimèze
-Le Cœur ébouillanté, éditions Millas-Martin, 1958
-Roman signé Jean Sébastien
-Un chat à la mer, éditions Gallimard, Série noire no 1258, 1969
-Roman signé R. Athépey
-Les Transports en commun, éditions Cypris, 1970
-Roman signé Jean Ferry
-La Fête nue, édition et publications premières, 1979</t>
+Une banlieue douce, Jacques André éditeur, 2006 - réédition de L'Eau douce (1974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Signée Jean Dubacq</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Petit Robot et la Tour Eiffel, éditions du Sorbier, 1984
+J’étais enfant sous la Révolution, éditions du Sorbier, 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poésie signée Jean Cimèze</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Cœur ébouillanté, éditions Millas-Martin, 1958</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Roman signé Jean Sébastien</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Un chat à la mer, éditions Gallimard, Série noire no 1258, 1969</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Roman signé R. Athépey</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les Transports en commun, éditions Cypris, 1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Dubacq</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Roman signé Jean Ferry</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Fête nue, édition et publications premières, 1979</t>
         </is>
       </c>
     </row>
